--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3b593657d83eddb/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{53DB5772-0B8A-4A4E-91E4-2A8D20C1A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03536FE4-26F3-4B0A-9340-58A819EE1D2D}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{53DB5772-0B8A-4A4E-91E4-2A8D20C1A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAE82043-8355-44FD-911C-B50AFE509FC4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -55,14 +54,94 @@
     <t>Remove Duplicates from sorted array</t>
   </si>
   <si>
-    <t>used haspmap or hashset</t>
+    <t>who</t>
+  </si>
+  <si>
+    <t>took help</t>
+  </si>
+  <si>
+    <t>first check left part is sorted or right. Then in each part check target lies in left part or right part</t>
+  </si>
+  <si>
+    <t>find minimum in rotated sorted array in logn time complexity</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>arr[mid] &gt; arr[high]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the minimum lies in the right half, so set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>low = mid + 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+If arr[mid] &lt;= arr[high], the minimum lies in the left half or at mid, so set high = mid.
+When low == high, the pointer low (or high) will point to the minimum element.</t>
+    </r>
+  </si>
+  <si>
+    <t>find peak element. A peak element is an element that is strictly greater than its neighbors. Use O(logn)</t>
+  </si>
+  <si>
+    <t>find target in rotated sorted array .  Use O(logn)</t>
+  </si>
+  <si>
+    <t>solved in O(n)
+  while (low &lt; high) {
+            int mid = low + (high - low) / 2;
+            // Check if mid is a peak
+            if (arr[mid] &gt; arr[mid + 1]) {
+                high = mid; // Peak is in the left half or at mid
+            } else {
+                low = mid + 1; // Peak is in the right half
+            }
+        }
+        return low; // or high, as low == high</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>used haspmap or hashset, also solved without extra space</t>
+  </si>
+  <si>
+    <t>move zeroes to end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +156,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,9 +183,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,6 +208,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,129 +511,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="41.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.77734375" customWidth="1"/>
-    <col min="5" max="5" width="53.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" customWidth="1"/>
+    <col min="6" max="6" width="53.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27.6" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4">
+        <f>DATE(2024,12,21)</f>
+        <v>45647</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8">
       <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <f t="shared" ref="B4:B7" si="0">DATE(2024,12,21)</f>
+        <v>45647</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="86.4">
       <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>45647</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="201.6">
       <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>45647</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <f>DATE(2024,12,22)</f>
+        <v>45648</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>18</v>
       </c>

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3b593657d83eddb/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{53DB5772-0B8A-4A4E-91E4-2A8D20C1A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAE82043-8355-44FD-911C-B50AFE509FC4}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{53DB5772-0B8A-4A4E-91E4-2A8D20C1A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5FE7431-B6EA-46D1-9F0E-3B819C47393A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -136,12 +136,36 @@
   <si>
     <t>move zeroes to end</t>
   </si>
+  <si>
+    <t>left rotate array by k places</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>solved . But not submitted</t>
+  </si>
+  <si>
+    <t>right rotate array by k places</t>
+  </si>
+  <si>
+    <t>Merged Sorted Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solved </t>
+  </si>
+  <si>
+    <t>Frequency Of Elements in SortedArray</t>
+  </si>
+  <si>
+    <t>solved</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +185,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -193,6 +223,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -524,6 +555,7 @@
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
     <col min="5" max="5" width="29.77734375" customWidth="1"/>
     <col min="6" max="6" width="53.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
@@ -545,7 +577,7 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -569,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:B7" si="0">DATE(2024,12,21)</f>
+        <f t="shared" ref="B4:B6" si="0">DATE(2024,12,21)</f>
         <v>45647</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -578,7 +610,7 @@
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -596,7 +628,7 @@
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -614,7 +646,7 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -630,24 +662,66 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="57.6">
       <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="B8" s="4">
+        <v>45649</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57.6">
       <c r="A9">
         <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45649</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10" s="4">
+        <v>45649</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45649</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3b593657d83eddb/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{53DB5772-0B8A-4A4E-91E4-2A8D20C1A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5FE7431-B6EA-46D1-9F0E-3B819C47393A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC587843-EF66-47FC-B9C6-9D43A9AB3D5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -61,9 +52,6 @@
   </si>
   <si>
     <t>first check left part is sorted or right. Then in each part check target lies in left part or right part</t>
-  </si>
-  <si>
-    <t>find minimum in rotated sorted array in logn time complexity</t>
   </si>
   <si>
     <r>
@@ -110,9 +98,6 @@
   </si>
   <si>
     <t>find peak element. A peak element is an element that is strictly greater than its neighbors. Use O(logn)</t>
-  </si>
-  <si>
-    <t>find target in rotated sorted array .  Use O(logn)</t>
   </si>
   <si>
     <t>solved in O(n)
@@ -149,16 +134,84 @@
     <t>right rotate array by k places</t>
   </si>
   <si>
-    <t>Merged Sorted Arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solved </t>
-  </si>
-  <si>
     <t>Frequency Of Elements in SortedArray</t>
   </si>
   <si>
     <t>solved</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">find target in rotated sorted array .  Use O(logn) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">find minimum in rotated sorted array in logn time complexity. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Merged Sorted Arrays. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trapping Rain Water. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">solved and submitted </t>
+  </si>
+  <si>
+    <t>for n^2 complexity :  For each element find left max and right max and in result add (min(left max, right max)-arr[i])
+for n complexity : maintain leftmax and rightmax array .
+For leftmax array : max(lm[i-1], arr[i])
+ rightmax array : max(rm[i+1], arr[i])
+ in result add (min(leftmax[i], rightmax[i])-arr[i])</t>
   </si>
 </sst>
 </file>
@@ -544,18 +597,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.77734375" customWidth="1"/>
-    <col min="6" max="6" width="53.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
@@ -563,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -574,7 +627,7 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -592,11 +645,11 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8">
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -605,7 +658,7 @@
         <v>45647</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -614,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="86.4">
+    <row r="5" spans="1:7" ht="90">
       <c r="A5">
         <v>3</v>
       </c>
@@ -623,16 +676,16 @@
         <v>45647</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="201.6">
+    <row r="6" spans="1:7" ht="210">
       <c r="A6">
         <v>4</v>
       </c>
@@ -641,10 +694,10 @@
         <v>45647</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>7</v>
@@ -659,10 +712,10 @@
         <v>45648</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="57.6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60">
       <c r="A8">
         <v>6</v>
       </c>
@@ -670,16 +723,16 @@
         <v>45649</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="57.6">
+    </row>
+    <row r="9" spans="1:7" ht="60">
       <c r="A9">
         <v>7</v>
       </c>
@@ -687,16 +740,16 @@
         <v>45649</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60">
       <c r="A10">
         <v>8</v>
       </c>
@@ -704,10 +757,10 @@
         <v>45649</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -718,15 +771,27 @@
         <v>45649</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="120">
       <c r="A12">
         <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45650</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC587843-EF66-47FC-B9C6-9D43A9AB3D5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF20A02B-239D-4728-892C-77E106198982}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -212,6 +212,37 @@
 For leftmax array : max(lm[i-1], arr[i])
  rightmax array : max(rm[i+1], arr[i])
  in result add (min(leftmax[i], rightmax[i])-arr[i])</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Given an integer array nums, return true if any value appears at least twice in the array, and return false if every element is distinct.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>used hashset</t>
+  </si>
+  <si>
+    <t>maximumConsecutiveOnes</t>
+  </si>
+  <si>
+    <t>maximum sum subarray</t>
+  </si>
+  <si>
+    <t>maxSum = Math.max(maxSum, sum);
+if sum &lt;0 then sum=0
+O(n) = n</t>
   </si>
 </sst>
 </file>
@@ -597,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -648,6 +679,9 @@
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4">
@@ -794,19 +828,52 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="75">
       <c r="A13">
         <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45651</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="B14" s="4">
+        <v>45651</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45">
       <c r="A15">
         <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45651</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF20A02B-239D-4728-892C-77E106198982}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A47A9E4-82C0-469A-9CAF-10F65625DF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -243,6 +252,9 @@
     <t>maxSum = Math.max(maxSum, sum);
 if sum &lt;0 then sum=0
 O(n) = n</t>
+  </si>
+  <si>
+    <t>longestEvenOddSubarray</t>
   </si>
 </sst>
 </file>
@@ -323,10 +335,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,17 +637,17 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="53.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
@@ -683,7 +691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="28.8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -701,7 +709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="90">
+    <row r="5" spans="1:7" ht="86.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -719,7 +727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="210">
+    <row r="6" spans="1:7" ht="201.6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -749,7 +757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60">
+    <row r="8" spans="1:7" ht="57.6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -766,7 +774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="60">
+    <row r="9" spans="1:7" ht="57.6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -783,7 +791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60">
+    <row r="10" spans="1:7" ht="57.6">
       <c r="A10">
         <v>8</v>
       </c>
@@ -811,7 +819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="120">
+    <row r="12" spans="1:7" ht="100.8">
       <c r="A12">
         <v>10</v>
       </c>
@@ -828,7 +836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75">
+    <row r="13" spans="1:7" ht="57.6">
       <c r="A13">
         <v>11</v>
       </c>
@@ -859,7 +867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45">
+    <row r="15" spans="1:7" ht="43.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -879,6 +887,15 @@
     <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>45651</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A47A9E4-82C0-469A-9CAF-10F65625DF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99E4489-ACC5-4473-B605-84FFB37B30B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -150,22 +141,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">find target in rotated sorted array .  Use O(logn) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Leetcode</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">find minimum in rotated sorted array in logn time complexity. </t>
     </r>
     <r>
@@ -256,12 +231,366 @@
   <si>
     <t>longestEvenOddSubarray</t>
   </si>
+  <si>
+    <t>nums = [2,7,11,15], target = 9</t>
+  </si>
+  <si>
+    <t>[0,1]</t>
+  </si>
+  <si>
+    <t>solved and submitted</t>
+  </si>
+  <si>
+    <t>used hashmap</t>
+  </si>
+  <si>
+    <t>prices = [7,1,5,3,6,4]</t>
+  </si>
+  <si>
+    <t>5
+Buy on day 2 (price = 1) and sell on day 5 (price = 6), profit = 6-1 = 5.</t>
+  </si>
+  <si>
+    <t>s = "A man, a plan, a canal: Panama"</t>
+  </si>
+  <si>
+    <t>nums = [2,2,1]</t>
+  </si>
+  <si>
+    <t>nums = [1,2,3,4]</t>
+  </si>
+  <si>
+    <t>[24,12,8,6]</t>
+  </si>
+  <si>
+    <t>[1,2,3,1]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">find target in rotated sorted array .  Use O(logn) . </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Two sum. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Valid Parenthesis. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Best time to buy and sell stock. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Valid Pallindrome. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Valid Anagram. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binary Search. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linked list cycle. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Longest substring without repeating characters. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Contains duplicate. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove Duplicates from sorted array. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Product of array except self. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maximum subarray. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Middle of the linked list. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reverse String. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maximum Depth of binary tree. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find Single number  in array . </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reverse Linked list. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Missing number in array. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Majority Element : no. which appears more than n/2 in array. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +617,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -297,9 +632,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -309,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -320,6 +664,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,20 +987,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="53.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
@@ -660,7 +1013,7 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -673,249 +1026,691 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="60">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="4">
+        <v>41959</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45625</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45625</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45627</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45627</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45635</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45635</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45635</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45635</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45635</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45635</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45635</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45635</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>45636</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>45636</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>45637</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>45646</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="G19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
         <f>DATE(2024,12,21)</f>
         <v>45647</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <f t="shared" ref="B4:B6" si="0">DATE(2024,12,21)</f>
+    <row r="21" spans="1:7" ht="30">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" ref="B21:B23" si="0">DATE(2024,12,21)</f>
         <v>45647</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="86.4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="22" spans="1:7" ht="90">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="201.6">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="23" spans="1:7" ht="210">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
         <f>DATE(2024,12,22)</f>
         <v>45648</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57.6">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
+    <row r="25" spans="1:7" ht="60">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
         <v>45649</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57.6">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
+    <row r="26" spans="1:7" ht="60">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
         <v>45649</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="57.6">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
+    <row r="27" spans="1:7" ht="60">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4">
         <v>45649</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>45649</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="120">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>45650</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>45649</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="G29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="60">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4">
+        <v>45650</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="75">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4">
+        <v>45651</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4">
+        <v>45651</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="100.8">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>45650</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="57.6">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
+    <row r="33" spans="1:7" ht="45">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4">
         <v>45651</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="C33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4">
         <v>45651</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="43.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4">
-        <v>45651</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>45651</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>18</v>
+    <row r="35" spans="1:7" ht="60">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4">
+        <v>45652</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99E4489-ACC5-4473-B605-84FFB37B30B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906AA2B3-B206-4561-AC40-E1292EA178DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -572,6 +572,22 @@
   <si>
     <r>
       <t xml:space="preserve">Majority Element : no. which appears more than n/2 in array. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Merge two sorted list. </t>
     </r>
     <r>
       <rPr>
@@ -989,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1558,8 +1574,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="60">
       <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4">
+        <v>45652</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906AA2B3-B206-4561-AC40-E1292EA178DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9E705F-F902-494A-9328-D1392E3FE2D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -588,6 +588,31 @@
   <si>
     <r>
       <t xml:space="preserve">Merge two sorted list. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>Maximum circular subarray sum</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove nth node from end of list. </t>
     </r>
     <r>
       <rPr>
@@ -1005,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1592,10 +1617,34 @@
       <c r="A37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="B37" s="4">
+        <v>45652</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60">
       <c r="A38">
         <v>36</v>
+      </c>
+      <c r="B38" s="4">
+        <v>45653</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9E705F-F902-494A-9328-D1392E3FE2D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8303B8-4ACA-4AB5-A2C0-8F282C67F86B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -625,6 +625,50 @@
       </rPr>
       <t>Leetcode</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove given val from array. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>nums = [3,2,2,3], val = 3</t>
+  </si>
+  <si>
+    <t>2, nums = [2,2,_,_]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Search Insert Position in  array. )(logn) . </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>[1,3,5,6], target = 2</t>
+  </si>
+  <si>
+    <t>O(logn)</t>
   </si>
 </sst>
 </file>
@@ -1030,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1647,14 +1691,50 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="60">
       <c r="A39">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="B39" s="4">
+        <v>45656</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="60">
       <c r="A40">
         <v>38</v>
+      </c>
+      <c r="B40" s="4">
+        <v>45656</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8303B8-4ACA-4AB5-A2C0-8F282C67F86B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B94159-F391-4190-8893-CBBC3F2EDEC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -669,6 +669,31 @@
   </si>
   <si>
     <t>O(logn)</t>
+  </si>
+  <si>
+    <t>first_m_n_bonacciSeries. Window sliding technique</t>
+  </si>
+  <si>
+    <t>countDistinctElementsInEachWindowK. Window sliding technique</t>
+  </si>
+  <si>
+    <t>O(n). Used hashmap</t>
+  </si>
+  <si>
+    <t>getSum(a,b). Prefix sum technique</t>
+  </si>
+  <si>
+    <t>int arr[] = {2,8,3,9,6,5,4};
+		getSum(arr,1,3);</t>
+  </si>
+  <si>
+    <t>find equillibrium point(left sum == right sum) Prefix sum technique</t>
+  </si>
+  <si>
+    <t>O(n).
+Find prefix and suffix array.check  If prefix[i]==suffix[i]
+No extra space : 
+find sum , maintain lsum, and reduce sum for rsum</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1737,24 +1762,78 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" ht="30">
       <c r="A41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="B41" s="4">
+        <v>45656</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30">
       <c r="A42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="B42" s="4">
+        <v>45656</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30">
       <c r="A43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="B43" s="4">
+        <v>45656</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="60">
       <c r="A44">
         <v>42</v>
+      </c>
+      <c r="B44" s="4">
+        <v>45656</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B94159-F391-4190-8893-CBBC3F2EDEC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E50BEF6-43CF-4926-910B-719FBB986EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -695,12 +704,104 @@
 No extra space : 
 find sum , maintain lsum, and reduce sum for rsum</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plus One. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>took quite help</t>
+  </si>
+  <si>
+    <t>digits = [1,2,3]</t>
+  </si>
+  <si>
+    <t>[1,2,4]</t>
+  </si>
+  <si>
+    <t>O(n) used hashmap</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given an integer array nums and an integer k, return true if there are two distinct indices i and j in the array such that nums[i] == nums[j] and abs(i - j) &lt;= k</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">move zeroes to end. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Intersection of two arrays. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>O(n). Used hashset</t>
+  </si>
+  <si>
+    <t>nums1 = [4,9,5], nums2 = [9,4,9,8,4]</t>
+  </si>
+  <si>
+    <t>[9,4]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,6 +834,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -742,7 +849,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -759,11 +866,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -780,7 +896,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,18 +1221,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="53.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
@@ -1136,7 +1258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60">
+    <row r="3" spans="1:7" ht="57.6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1159,7 +1281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1173,7 +1295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60">
+    <row r="5" spans="1:7" ht="43.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1193,7 +1315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60">
+    <row r="6" spans="1:7" ht="57.6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1213,7 +1335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60">
+    <row r="7" spans="1:7" ht="57.6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1227,7 +1349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60">
+    <row r="8" spans="1:7" ht="57.6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1241,7 +1363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="60">
+    <row r="9" spans="1:7" ht="57.6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1255,7 +1377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60">
+    <row r="10" spans="1:7" ht="57.6">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1269,7 +1391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60">
+    <row r="11" spans="1:7" ht="57.6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1289,7 +1411,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60">
+    <row r="12" spans="1:7" ht="57.6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1303,7 +1425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60">
+    <row r="13" spans="1:7" ht="57.6">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1317,7 +1439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60">
+    <row r="14" spans="1:7" ht="57.6">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1331,7 +1453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60">
+    <row r="15" spans="1:7" ht="57.6">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1345,7 +1467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60">
+    <row r="16" spans="1:7" ht="57.6">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1359,7 +1481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60">
+    <row r="17" spans="1:7" ht="57.6">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1373,7 +1495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60">
+    <row r="18" spans="1:7" ht="57.6">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1393,7 +1515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60">
+    <row r="19" spans="1:7" ht="57.6">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1427,7 +1549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30">
+    <row r="21" spans="1:7" ht="28.8">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1445,7 +1567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="90">
+    <row r="22" spans="1:7" ht="86.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1463,7 +1585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="210">
+    <row r="23" spans="1:7" ht="201.6">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1493,7 +1615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60">
+    <row r="25" spans="1:7" ht="57.6">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1510,7 +1632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60">
+    <row r="26" spans="1:7" ht="57.6">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1527,7 +1649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60">
+    <row r="27" spans="1:7" ht="57.6">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1555,7 +1677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="120">
+    <row r="29" spans="1:7" ht="100.8">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1572,7 +1694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="60">
+    <row r="30" spans="1:7" ht="57.6">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1592,7 +1714,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="75">
+    <row r="31" spans="1:7" ht="57.6">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1623,7 +1745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45">
+    <row r="33" spans="1:7" ht="43.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1654,7 +1776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="60">
+    <row r="35" spans="1:7" ht="57.6">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1668,7 +1790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60">
+    <row r="36" spans="1:7" ht="57.6">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1699,7 +1821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60">
+    <row r="38" spans="1:7" ht="57.6">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1716,7 +1838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="60">
+    <row r="39" spans="1:7" ht="57.6">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1739,7 +1861,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="60">
+    <row r="40" spans="1:7" ht="57.6">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1762,7 +1884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30">
+    <row r="41" spans="1:7" ht="28.8">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1779,7 +1901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="28.8">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1796,7 +1918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30">
+    <row r="43" spans="1:7" ht="28.8">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1819,7 +1941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="60">
+    <row r="44" spans="1:7" ht="57.6">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1836,24 +1958,78 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" ht="43.2">
       <c r="A45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="B45" s="4">
+        <v>45657</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="57.6">
       <c r="A46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="B46" s="4">
+        <v>45658</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="57.6">
       <c r="A47">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="B47" s="4">
+        <v>45658</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="57.6">
       <c r="A48">
         <v>46</v>
+      </c>
+      <c r="B48" s="4">
+        <v>45658</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:1">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E50BEF6-43CF-4926-910B-719FBB986EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD61A7-D533-4B01-89C1-D2A02696655E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -795,6 +795,117 @@
   </si>
   <si>
     <t>[9,4]</t>
+  </si>
+  <si>
+    <t>solved but not submitted</t>
+  </si>
+  <si>
+    <t>O(n^2).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">.3sum. Given an integer array nums, return all the triplets [nums[i], nums[j], nums[k]] such that i != j, i != k, and j != k, and nums[i] + nums[j] + nums[k] == 0.. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-1,0,1,2,-1,-4]</t>
+  </si>
+  <si>
+    <t>[[-1,-1,2],[-1,0,1]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">find index of first occurrence in string. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>haystack = "sadbutsad", needle = "sad"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binary tree inorder traversal. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binary tree preorder traversal. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binary tree postorder traversal. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Seach in sorted rotated array. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1219,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2032,82 +2143,154 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:7" ht="57.6">
       <c r="A49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="4">
+        <v>45661</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="28.8">
       <c r="A50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="4">
+        <v>45662</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="57.6">
       <c r="A51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="4">
+        <v>45662</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="57.6">
       <c r="A52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="4">
+        <v>45662</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="57.6">
       <c r="A53">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="4">
+        <v>45662</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="57.6">
       <c r="A54">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="4">
+        <v>45662</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2120,6 +2303,16 @@
     <row r="66" spans="1:1">
       <c r="A66">
         <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD61A7-D533-4B01-89C1-D2A02696655E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0973C33C-3334-4D40-9E15-67CBEE2EDB7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -906,6 +897,25 @@
       </rPr>
       <t>Leetcode</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Maximum subarray product. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>On^2)</t>
   </si>
 </sst>
 </file>
@@ -1332,18 +1342,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="53.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
@@ -1369,7 +1379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6">
+    <row r="3" spans="1:7" ht="60">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1392,7 +1402,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1406,7 +1416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.2">
+    <row r="5" spans="1:7" ht="60">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1426,7 +1436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="57.6">
+    <row r="6" spans="1:7" ht="60">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1446,7 +1456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57.6">
+    <row r="7" spans="1:7" ht="60">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1460,7 +1470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57.6">
+    <row r="8" spans="1:7" ht="60">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1474,7 +1484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57.6">
+    <row r="9" spans="1:7" ht="60">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1488,7 +1498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="57.6">
+    <row r="10" spans="1:7" ht="60">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1502,7 +1512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.6">
+    <row r="11" spans="1:7" ht="60">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1522,7 +1532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="57.6">
+    <row r="12" spans="1:7" ht="60">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1536,7 +1546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57.6">
+    <row r="13" spans="1:7" ht="60">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1550,7 +1560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="57.6">
+    <row r="14" spans="1:7" ht="60">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1564,7 +1574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="57.6">
+    <row r="15" spans="1:7" ht="60">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1578,7 +1588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="57.6">
+    <row r="16" spans="1:7" ht="60">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1592,7 +1602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="57.6">
+    <row r="17" spans="1:7" ht="60">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1606,7 +1616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="57.6">
+    <row r="18" spans="1:7" ht="60">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1626,7 +1636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57.6">
+    <row r="19" spans="1:7" ht="60">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1660,7 +1670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8">
+    <row r="21" spans="1:7" ht="30">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1678,7 +1688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="86.4">
+    <row r="22" spans="1:7" ht="90">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1696,7 +1706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="201.6">
+    <row r="23" spans="1:7" ht="210">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1726,7 +1736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="57.6">
+    <row r="25" spans="1:7" ht="60">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1743,7 +1753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57.6">
+    <row r="26" spans="1:7" ht="60">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1760,7 +1770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="57.6">
+    <row r="27" spans="1:7" ht="60">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1788,7 +1798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="100.8">
+    <row r="29" spans="1:7" ht="120">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1805,7 +1815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="57.6">
+    <row r="30" spans="1:7" ht="60">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1825,7 +1835,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="57.6">
+    <row r="31" spans="1:7" ht="75">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1856,7 +1866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="43.2">
+    <row r="33" spans="1:7" ht="45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1887,7 +1897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="57.6">
+    <row r="35" spans="1:7" ht="60">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1901,7 +1911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="57.6">
+    <row r="36" spans="1:7" ht="60">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1932,7 +1942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="57.6">
+    <row r="38" spans="1:7" ht="60">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1949,7 +1959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="57.6">
+    <row r="39" spans="1:7" ht="60">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1972,7 +1982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="57.6">
+    <row r="40" spans="1:7" ht="60">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1995,7 +2005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="28.8">
+    <row r="41" spans="1:7" ht="30">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2012,7 +2022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28.8">
+    <row r="42" spans="1:7" ht="30">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2029,7 +2039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.8">
+    <row r="43" spans="1:7" ht="30">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2052,7 +2062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="57.6">
+    <row r="44" spans="1:7" ht="60">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2069,7 +2079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="43.2">
+    <row r="45" spans="1:7" ht="45">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2089,7 +2099,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="57.6">
+    <row r="46" spans="1:7" ht="75">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2106,7 +2116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="57.6">
+    <row r="47" spans="1:7" ht="60">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2120,7 +2130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="57.6">
+    <row r="48" spans="1:7" ht="60">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2143,7 +2153,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="57.6">
+    <row r="49" spans="1:7" ht="60">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2166,7 +2176,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28.8">
+    <row r="50" spans="1:7" ht="30">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2186,7 +2196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="57.6">
+    <row r="51" spans="1:7" ht="60">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2200,7 +2210,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="57.6">
+    <row r="52" spans="1:7" ht="60">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2214,7 +2224,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="57.6">
+    <row r="53" spans="1:7" ht="60">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2228,7 +2238,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="57.6">
+    <row r="54" spans="1:7" ht="60">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2245,9 +2255,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="60">
       <c r="A55">
         <v>53</v>
+      </c>
+      <c r="B55" s="4">
+        <v>45665</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0973C33C-3334-4D40-9E15-67CBEE2EDB7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9ED39C-3913-4EF7-B898-CF3CE91E9AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -916,6 +925,31 @@
   </si>
   <si>
     <t>On^2)</t>
+  </si>
+  <si>
+    <t>O(m*n)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SetMatrixZeroes. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>matrix = [[1,1,1],[1,0,1],[1,1,1]]</t>
+  </si>
+  <si>
+    <t>[[1,0,1],[0,0,0],[1,0,1]]</t>
   </si>
 </sst>
 </file>
@@ -1343,17 +1377,17 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="53.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
@@ -1379,7 +1413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60">
+    <row r="3" spans="1:7" ht="57.6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1402,7 +1436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1416,7 +1450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60">
+    <row r="5" spans="1:7" ht="43.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1436,7 +1470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60">
+    <row r="6" spans="1:7" ht="57.6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1456,7 +1490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60">
+    <row r="7" spans="1:7" ht="57.6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1470,7 +1504,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60">
+    <row r="8" spans="1:7" ht="57.6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1484,7 +1518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="60">
+    <row r="9" spans="1:7" ht="57.6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1498,7 +1532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60">
+    <row r="10" spans="1:7" ht="57.6">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1512,7 +1546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60">
+    <row r="11" spans="1:7" ht="57.6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1532,7 +1566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60">
+    <row r="12" spans="1:7" ht="57.6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1546,7 +1580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60">
+    <row r="13" spans="1:7" ht="57.6">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1560,7 +1594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60">
+    <row r="14" spans="1:7" ht="57.6">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1574,7 +1608,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60">
+    <row r="15" spans="1:7" ht="57.6">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1588,7 +1622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60">
+    <row r="16" spans="1:7" ht="57.6">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1602,7 +1636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60">
+    <row r="17" spans="1:7" ht="57.6">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1616,7 +1650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60">
+    <row r="18" spans="1:7" ht="57.6">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1636,7 +1670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60">
+    <row r="19" spans="1:7" ht="57.6">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1670,7 +1704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30">
+    <row r="21" spans="1:7" ht="28.8">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1688,7 +1722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="90">
+    <row r="22" spans="1:7" ht="86.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1706,7 +1740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="210">
+    <row r="23" spans="1:7" ht="201.6">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1736,7 +1770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60">
+    <row r="25" spans="1:7" ht="57.6">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1753,7 +1787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60">
+    <row r="26" spans="1:7" ht="57.6">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1770,7 +1804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60">
+    <row r="27" spans="1:7" ht="57.6">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1798,7 +1832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="120">
+    <row r="29" spans="1:7" ht="100.8">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1815,7 +1849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="60">
+    <row r="30" spans="1:7" ht="57.6">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1835,7 +1869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="75">
+    <row r="31" spans="1:7" ht="57.6">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1866,7 +1900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45">
+    <row r="33" spans="1:7" ht="43.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1897,7 +1931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="60">
+    <row r="35" spans="1:7" ht="57.6">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1911,7 +1945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60">
+    <row r="36" spans="1:7" ht="57.6">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1942,7 +1976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60">
+    <row r="38" spans="1:7" ht="57.6">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1959,7 +1993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="60">
+    <row r="39" spans="1:7" ht="57.6">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1982,7 +2016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="60">
+    <row r="40" spans="1:7" ht="57.6">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2005,7 +2039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30">
+    <row r="41" spans="1:7" ht="28.8">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2022,7 +2056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="28.8">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2039,7 +2073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30">
+    <row r="43" spans="1:7" ht="28.8">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2062,7 +2096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="60">
+    <row r="44" spans="1:7" ht="57.6">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2079,7 +2113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45">
+    <row r="45" spans="1:7" ht="43.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2099,7 +2133,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75">
+    <row r="46" spans="1:7" ht="57.6">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2116,7 +2150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60">
+    <row r="47" spans="1:7" ht="57.6">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2130,7 +2164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="60">
+    <row r="48" spans="1:7" ht="57.6">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2153,7 +2187,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="60">
+    <row r="49" spans="1:7" ht="57.6">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2176,7 +2210,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30">
+    <row r="50" spans="1:7" ht="28.8">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2196,7 +2230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="60">
+    <row r="51" spans="1:7" ht="57.6">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2210,7 +2244,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="60">
+    <row r="52" spans="1:7" ht="57.6">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2224,7 +2258,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="60">
+    <row r="53" spans="1:7" ht="57.6">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2238,7 +2272,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="60">
+    <row r="54" spans="1:7" ht="57.6">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2255,7 +2289,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="60">
+    <row r="55" spans="1:7" ht="57.6">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2272,9 +2306,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" ht="57.6">
       <c r="A56">
         <v>54</v>
+      </c>
+      <c r="B56" s="4">
+        <v>45665</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9ED39C-3913-4EF7-B898-CF3CE91E9AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FD6455-1C91-458B-B926-907428D2FB01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="110">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -950,6 +941,22 @@
   </si>
   <si>
     <t>[[1,0,1],[0,0,0],[1,0,1]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spiral Matrix. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1377,17 +1384,17 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="53.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
@@ -1413,7 +1420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6">
+    <row r="3" spans="1:7" ht="60">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1436,7 +1443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1450,7 +1457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.2">
+    <row r="5" spans="1:7" ht="60">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1470,7 +1477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="57.6">
+    <row r="6" spans="1:7" ht="60">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1490,7 +1497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57.6">
+    <row r="7" spans="1:7" ht="60">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1504,7 +1511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57.6">
+    <row r="8" spans="1:7" ht="60">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1518,7 +1525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57.6">
+    <row r="9" spans="1:7" ht="60">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1532,7 +1539,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="57.6">
+    <row r="10" spans="1:7" ht="60">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1546,7 +1553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.6">
+    <row r="11" spans="1:7" ht="60">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1566,7 +1573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="57.6">
+    <row r="12" spans="1:7" ht="60">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1580,7 +1587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57.6">
+    <row r="13" spans="1:7" ht="60">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1594,7 +1601,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="57.6">
+    <row r="14" spans="1:7" ht="60">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1608,7 +1615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="57.6">
+    <row r="15" spans="1:7" ht="60">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1622,7 +1629,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="57.6">
+    <row r="16" spans="1:7" ht="60">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1636,7 +1643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="57.6">
+    <row r="17" spans="1:7" ht="60">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1650,7 +1657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="57.6">
+    <row r="18" spans="1:7" ht="60">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1670,7 +1677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57.6">
+    <row r="19" spans="1:7" ht="60">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1704,7 +1711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8">
+    <row r="21" spans="1:7" ht="30">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1722,7 +1729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="86.4">
+    <row r="22" spans="1:7" ht="90">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1740,7 +1747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="201.6">
+    <row r="23" spans="1:7" ht="210">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1770,7 +1777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="57.6">
+    <row r="25" spans="1:7" ht="60">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1787,7 +1794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57.6">
+    <row r="26" spans="1:7" ht="60">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1804,7 +1811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="57.6">
+    <row r="27" spans="1:7" ht="60">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1832,7 +1839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="100.8">
+    <row r="29" spans="1:7" ht="120">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1849,7 +1856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="57.6">
+    <row r="30" spans="1:7" ht="60">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1869,7 +1876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="57.6">
+    <row r="31" spans="1:7" ht="75">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1900,7 +1907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="43.2">
+    <row r="33" spans="1:7" ht="45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1931,7 +1938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="57.6">
+    <row r="35" spans="1:7" ht="60">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1945,7 +1952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="57.6">
+    <row r="36" spans="1:7" ht="60">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1976,7 +1983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="57.6">
+    <row r="38" spans="1:7" ht="60">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1993,7 +2000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="57.6">
+    <row r="39" spans="1:7" ht="60">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2016,7 +2023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="57.6">
+    <row r="40" spans="1:7" ht="60">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2039,7 +2046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="28.8">
+    <row r="41" spans="1:7" ht="30">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2056,7 +2063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28.8">
+    <row r="42" spans="1:7" ht="30">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2073,7 +2080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.8">
+    <row r="43" spans="1:7" ht="30">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2096,7 +2103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="57.6">
+    <row r="44" spans="1:7" ht="60">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2113,7 +2120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="43.2">
+    <row r="45" spans="1:7" ht="45">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2133,7 +2140,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="57.6">
+    <row r="46" spans="1:7" ht="75">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2150,7 +2157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="57.6">
+    <row r="47" spans="1:7" ht="60">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2164,7 +2171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="57.6">
+    <row r="48" spans="1:7" ht="60">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2187,7 +2194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="57.6">
+    <row r="49" spans="1:7" ht="60">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2210,7 +2217,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28.8">
+    <row r="50" spans="1:7" ht="30">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2230,7 +2237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="57.6">
+    <row r="51" spans="1:7" ht="60">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2244,7 +2251,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="57.6">
+    <row r="52" spans="1:7" ht="60">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2258,7 +2265,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="57.6">
+    <row r="53" spans="1:7" ht="60">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2272,7 +2279,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="57.6">
+    <row r="54" spans="1:7" ht="60">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2289,7 +2296,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="57.6">
+    <row r="55" spans="1:7" ht="60">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2306,7 +2313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="57.6">
+    <row r="56" spans="1:7" ht="60">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2329,9 +2336,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" ht="60">
       <c r="A57">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="B57" s="4">
+        <v>45666</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FD6455-1C91-458B-B926-907428D2FB01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B633658-1D98-4378-9BE5-FCBA02E69218}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -957,6 +957,25 @@
       </rPr>
       <t>Leetcode</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find Kth largest element without sorting. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>solved using lomuto partition of quick sort. O(n)</t>
   </si>
 </sst>
 </file>
@@ -1383,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2338,7 +2357,7 @@
     </row>
     <row r="57" spans="1:7" ht="60">
       <c r="A57">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4">
         <v>45666</v>
@@ -2355,9 +2374,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" ht="60">
       <c r="A58">
         <v>56</v>
+      </c>
+      <c r="B58" s="4">
+        <v>45674</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B633658-1D98-4378-9BE5-FCBA02E69218}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4215FF2A-0672-454F-AC4C-7EE04313030D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="113">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -976,6 +985,22 @@
   </si>
   <si>
     <t>solved using lomuto partition of quick sort. O(n)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Median of two sorted arrays. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1403,17 +1428,17 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="53.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
@@ -1439,7 +1464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60">
+    <row r="3" spans="1:7" ht="57.6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1462,7 +1487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1476,7 +1501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60">
+    <row r="5" spans="1:7" ht="43.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1496,7 +1521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60">
+    <row r="6" spans="1:7" ht="57.6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1516,7 +1541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60">
+    <row r="7" spans="1:7" ht="57.6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1530,7 +1555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60">
+    <row r="8" spans="1:7" ht="57.6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1544,7 +1569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="60">
+    <row r="9" spans="1:7" ht="57.6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1558,7 +1583,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60">
+    <row r="10" spans="1:7" ht="57.6">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1572,7 +1597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60">
+    <row r="11" spans="1:7" ht="57.6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1592,7 +1617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60">
+    <row r="12" spans="1:7" ht="57.6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1606,7 +1631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60">
+    <row r="13" spans="1:7" ht="57.6">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1620,7 +1645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60">
+    <row r="14" spans="1:7" ht="57.6">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1634,7 +1659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60">
+    <row r="15" spans="1:7" ht="57.6">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1648,7 +1673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60">
+    <row r="16" spans="1:7" ht="57.6">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1662,7 +1687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60">
+    <row r="17" spans="1:7" ht="57.6">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1676,7 +1701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60">
+    <row r="18" spans="1:7" ht="57.6">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1696,7 +1721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60">
+    <row r="19" spans="1:7" ht="57.6">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1730,7 +1755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30">
+    <row r="21" spans="1:7" ht="28.8">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1748,7 +1773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="90">
+    <row r="22" spans="1:7" ht="86.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1766,7 +1791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="210">
+    <row r="23" spans="1:7" ht="201.6">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1796,7 +1821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60">
+    <row r="25" spans="1:7" ht="57.6">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1813,7 +1838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60">
+    <row r="26" spans="1:7" ht="57.6">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1830,7 +1855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60">
+    <row r="27" spans="1:7" ht="57.6">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1858,7 +1883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="120">
+    <row r="29" spans="1:7" ht="100.8">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1875,7 +1900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="60">
+    <row r="30" spans="1:7" ht="57.6">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1895,7 +1920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="75">
+    <row r="31" spans="1:7" ht="57.6">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1926,7 +1951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45">
+    <row r="33" spans="1:7" ht="43.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1957,7 +1982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="60">
+    <row r="35" spans="1:7" ht="57.6">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1971,7 +1996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60">
+    <row r="36" spans="1:7" ht="57.6">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2002,7 +2027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60">
+    <row r="38" spans="1:7" ht="57.6">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2019,7 +2044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="60">
+    <row r="39" spans="1:7" ht="57.6">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2042,7 +2067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="60">
+    <row r="40" spans="1:7" ht="57.6">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2065,7 +2090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30">
+    <row r="41" spans="1:7" ht="28.8">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2082,7 +2107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="28.8">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2099,7 +2124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30">
+    <row r="43" spans="1:7" ht="28.8">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2122,7 +2147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="60">
+    <row r="44" spans="1:7" ht="57.6">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2139,7 +2164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45">
+    <row r="45" spans="1:7" ht="43.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2159,7 +2184,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75">
+    <row r="46" spans="1:7" ht="57.6">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2176,7 +2201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60">
+    <row r="47" spans="1:7" ht="57.6">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2190,7 +2215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="60">
+    <row r="48" spans="1:7" ht="57.6">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2213,7 +2238,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="60">
+    <row r="49" spans="1:7" ht="57.6">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2236,7 +2261,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30">
+    <row r="50" spans="1:7" ht="28.8">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2256,7 +2281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="60">
+    <row r="51" spans="1:7" ht="57.6">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2270,7 +2295,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="60">
+    <row r="52" spans="1:7" ht="57.6">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2284,7 +2309,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="60">
+    <row r="53" spans="1:7" ht="57.6">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2298,7 +2323,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="60">
+    <row r="54" spans="1:7" ht="57.6">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2315,7 +2340,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="60">
+    <row r="55" spans="1:7" ht="57.6">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2332,7 +2357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="60">
+    <row r="56" spans="1:7" ht="57.6">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2355,7 +2380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="60">
+    <row r="57" spans="1:7" ht="57.6">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2374,7 +2399,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="60">
+    <row r="58" spans="1:7" ht="57.6">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2391,9 +2416,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" ht="57.6">
       <c r="A59">
         <v>57</v>
+      </c>
+      <c r="B59" s="4">
+        <v>42022</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4215FF2A-0672-454F-AC4C-7EE04313030D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AE9928-88AB-4788-8F2F-A7C5A8C2BB4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -1001,6 +992,12 @@
       </rPr>
       <t>Leetcode</t>
     </r>
+  </si>
+  <si>
+    <t>sort012 without sorting. Geeks</t>
+  </si>
+  <si>
+    <t>used Dutch National flag algorithm. O(n)</t>
   </si>
 </sst>
 </file>
@@ -1427,18 +1424,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="53.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
@@ -1464,7 +1461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6">
+    <row r="3" spans="1:7" ht="60">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1487,7 +1484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1501,7 +1498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.2">
+    <row r="5" spans="1:7" ht="60">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1521,7 +1518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="57.6">
+    <row r="6" spans="1:7" ht="60">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1541,7 +1538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57.6">
+    <row r="7" spans="1:7" ht="60">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1555,7 +1552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57.6">
+    <row r="8" spans="1:7" ht="60">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1569,7 +1566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57.6">
+    <row r="9" spans="1:7" ht="60">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1583,7 +1580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="57.6">
+    <row r="10" spans="1:7" ht="60">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1597,7 +1594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.6">
+    <row r="11" spans="1:7" ht="60">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1617,7 +1614,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="57.6">
+    <row r="12" spans="1:7" ht="60">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1631,7 +1628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57.6">
+    <row r="13" spans="1:7" ht="60">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1645,7 +1642,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="57.6">
+    <row r="14" spans="1:7" ht="60">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1659,7 +1656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="57.6">
+    <row r="15" spans="1:7" ht="60">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1673,7 +1670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="57.6">
+    <row r="16" spans="1:7" ht="60">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1687,7 +1684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="57.6">
+    <row r="17" spans="1:7" ht="60">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1701,7 +1698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="57.6">
+    <row r="18" spans="1:7" ht="60">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1721,7 +1718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57.6">
+    <row r="19" spans="1:7" ht="60">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1755,7 +1752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8">
+    <row r="21" spans="1:7" ht="30">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1773,7 +1770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="86.4">
+    <row r="22" spans="1:7" ht="90">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1791,7 +1788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="201.6">
+    <row r="23" spans="1:7" ht="210">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1821,7 +1818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="57.6">
+    <row r="25" spans="1:7" ht="60">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1838,7 +1835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57.6">
+    <row r="26" spans="1:7" ht="60">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1855,7 +1852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="57.6">
+    <row r="27" spans="1:7" ht="60">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1883,7 +1880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="100.8">
+    <row r="29" spans="1:7" ht="120">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1900,7 +1897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="57.6">
+    <row r="30" spans="1:7" ht="60">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1920,7 +1917,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="57.6">
+    <row r="31" spans="1:7" ht="75">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1951,7 +1948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="43.2">
+    <row r="33" spans="1:7" ht="45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1982,7 +1979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="57.6">
+    <row r="35" spans="1:7" ht="60">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1996,7 +1993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="57.6">
+    <row r="36" spans="1:7" ht="60">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2027,7 +2024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="57.6">
+    <row r="38" spans="1:7" ht="60">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2044,7 +2041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="57.6">
+    <row r="39" spans="1:7" ht="60">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2067,7 +2064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="57.6">
+    <row r="40" spans="1:7" ht="60">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2090,7 +2087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="28.8">
+    <row r="41" spans="1:7" ht="30">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2107,7 +2104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28.8">
+    <row r="42" spans="1:7" ht="30">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2124,7 +2121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.8">
+    <row r="43" spans="1:7" ht="30">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2147,7 +2144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="57.6">
+    <row r="44" spans="1:7" ht="60">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2164,7 +2161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="43.2">
+    <row r="45" spans="1:7" ht="45">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2184,7 +2181,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="57.6">
+    <row r="46" spans="1:7" ht="75">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2201,7 +2198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="57.6">
+    <row r="47" spans="1:7" ht="60">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2215,7 +2212,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="57.6">
+    <row r="48" spans="1:7" ht="60">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2238,7 +2235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="57.6">
+    <row r="49" spans="1:7" ht="60">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2261,7 +2258,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28.8">
+    <row r="50" spans="1:7" ht="30">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2281,7 +2278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="57.6">
+    <row r="51" spans="1:7" ht="60">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2295,7 +2292,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="57.6">
+    <row r="52" spans="1:7" ht="60">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2309,7 +2306,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="57.6">
+    <row r="53" spans="1:7" ht="60">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2323,7 +2320,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="57.6">
+    <row r="54" spans="1:7" ht="60">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2340,7 +2337,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="57.6">
+    <row r="55" spans="1:7" ht="60">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2357,7 +2354,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="57.6">
+    <row r="56" spans="1:7" ht="60">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2380,7 +2377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="57.6">
+    <row r="57" spans="1:7" ht="60">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2399,7 +2396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="57.6">
+    <row r="58" spans="1:7" ht="60">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2416,12 +2413,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="57.6">
+    <row r="59" spans="1:7" ht="60">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>42022</v>
+        <v>45675</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>112</v>
@@ -2430,9 +2427,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" ht="60">
       <c r="A60">
         <v>58</v>
+      </c>
+      <c r="B60" s="4">
+        <v>45678</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AE9928-88AB-4788-8F2F-A7C5A8C2BB4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6792EF0E-F515-44C6-8CC5-880564AF63ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -998,6 +998,12 @@
   </si>
   <si>
     <t>used Dutch National flag algorithm. O(n)</t>
+  </si>
+  <si>
+    <t>Minimize the maximum difference between heights. Geeks</t>
+  </si>
+  <si>
+    <t>not solved</t>
   </si>
 </sst>
 </file>
@@ -1424,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2444,9 +2450,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" ht="30">
       <c r="A61">
         <v>59</v>
+      </c>
+      <c r="B61" s="4">
+        <v>45679</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6792EF0E-F515-44C6-8CC5-880564AF63ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD58757E-4CC8-4263-AECD-9F5B88E25A90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -1004,6 +1004,23 @@
   </si>
   <si>
     <t>not solved</t>
+  </si>
+  <si>
+    <r>
+      <t>Given a string s consisting of words and spaces, return the length of the last word in the string.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Leetcode</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1431,7 +1448,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2464,9 +2481,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" ht="60">
       <c r="A62">
         <v>60</v>
+      </c>
+      <c r="B62" s="4">
+        <v>45694</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3b593657d83eddb/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD58757E-4CC8-4263-AECD-9F5B88E25A90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{AD58757E-4CC8-4263-AECD-9F5B88E25A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69241EBD-C904-42B5-ABCF-E4A6DC7ECE96}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="121">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -1021,6 +1030,28 @@
       <t xml:space="preserve">
 Leetcode</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Reverse Words in a String</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>"a good   example"</t>
+  </si>
+  <si>
+    <t>"example good a"</t>
   </si>
 </sst>
 </file>
@@ -1448,17 +1479,17 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="53.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
@@ -1484,7 +1515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60">
+    <row r="3" spans="1:7" ht="57.6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1507,7 +1538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1521,7 +1552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60">
+    <row r="5" spans="1:7" ht="43.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1541,7 +1572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60">
+    <row r="6" spans="1:7" ht="57.6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1561,7 +1592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60">
+    <row r="7" spans="1:7" ht="57.6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1575,7 +1606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60">
+    <row r="8" spans="1:7" ht="57.6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1589,7 +1620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="60">
+    <row r="9" spans="1:7" ht="57.6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1603,7 +1634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60">
+    <row r="10" spans="1:7" ht="57.6">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1617,7 +1648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60">
+    <row r="11" spans="1:7" ht="57.6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1637,7 +1668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60">
+    <row r="12" spans="1:7" ht="57.6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1651,7 +1682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60">
+    <row r="13" spans="1:7" ht="57.6">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1665,7 +1696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60">
+    <row r="14" spans="1:7" ht="57.6">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1679,7 +1710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60">
+    <row r="15" spans="1:7" ht="57.6">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1693,7 +1724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60">
+    <row r="16" spans="1:7" ht="57.6">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1707,7 +1738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60">
+    <row r="17" spans="1:7" ht="57.6">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1721,7 +1752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60">
+    <row r="18" spans="1:7" ht="57.6">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1741,7 +1772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60">
+    <row r="19" spans="1:7" ht="57.6">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1775,7 +1806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30">
+    <row r="21" spans="1:7" ht="28.8">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1793,7 +1824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="90">
+    <row r="22" spans="1:7" ht="86.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1811,7 +1842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="210">
+    <row r="23" spans="1:7" ht="201.6">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1841,7 +1872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60">
+    <row r="25" spans="1:7" ht="57.6">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1858,7 +1889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60">
+    <row r="26" spans="1:7" ht="57.6">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1875,7 +1906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60">
+    <row r="27" spans="1:7" ht="57.6">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1903,7 +1934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="120">
+    <row r="29" spans="1:7" ht="100.8">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1920,7 +1951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="60">
+    <row r="30" spans="1:7" ht="57.6">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1940,7 +1971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="75">
+    <row r="31" spans="1:7" ht="57.6">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1971,7 +2002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45">
+    <row r="33" spans="1:7" ht="43.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2002,7 +2033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="60">
+    <row r="35" spans="1:7" ht="57.6">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2016,7 +2047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60">
+    <row r="36" spans="1:7" ht="57.6">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2047,7 +2078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60">
+    <row r="38" spans="1:7" ht="57.6">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2064,7 +2095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="60">
+    <row r="39" spans="1:7" ht="57.6">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2087,7 +2118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="60">
+    <row r="40" spans="1:7" ht="57.6">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2110,7 +2141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30">
+    <row r="41" spans="1:7" ht="28.8">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2127,7 +2158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="28.8">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2144,7 +2175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30">
+    <row r="43" spans="1:7" ht="28.8">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2167,7 +2198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="60">
+    <row r="44" spans="1:7" ht="57.6">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2184,7 +2215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45">
+    <row r="45" spans="1:7" ht="43.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2204,7 +2235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75">
+    <row r="46" spans="1:7" ht="57.6">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2221,7 +2252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60">
+    <row r="47" spans="1:7" ht="57.6">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2235,7 +2266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="60">
+    <row r="48" spans="1:7" ht="57.6">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2258,7 +2289,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="60">
+    <row r="49" spans="1:7" ht="57.6">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2281,7 +2312,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30">
+    <row r="50" spans="1:7" ht="28.8">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2301,7 +2332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="60">
+    <row r="51" spans="1:7" ht="57.6">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2315,7 +2346,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="60">
+    <row r="52" spans="1:7" ht="57.6">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2329,7 +2360,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="60">
+    <row r="53" spans="1:7" ht="57.6">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2343,7 +2374,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="60">
+    <row r="54" spans="1:7" ht="57.6">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2360,7 +2391,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="60">
+    <row r="55" spans="1:7" ht="57.6">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2377,7 +2408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="60">
+    <row r="56" spans="1:7" ht="57.6">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2400,7 +2431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="60">
+    <row r="57" spans="1:7" ht="57.6">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2419,7 +2450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="60">
+    <row r="58" spans="1:7" ht="57.6">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2436,7 +2467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="60">
+    <row r="59" spans="1:7" ht="57.6">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2450,7 +2481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="60">
+    <row r="60" spans="1:7" ht="57.6">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2467,7 +2498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30">
+    <row r="61" spans="1:7" ht="28.8">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2481,7 +2512,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="60">
+    <row r="62" spans="1:7" ht="57.6">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2498,9 +2529,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" ht="57.6">
       <c r="A63">
         <v>61</v>
+      </c>
+      <c r="B63" s="4">
+        <v>45715</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3b593657d83eddb/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{AD58757E-4CC8-4263-AECD-9F5B88E25A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69241EBD-C904-42B5-ABCF-E4A6DC7ECE96}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FB8DF4-CE6C-4ED5-B064-7921FD293E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -1052,6 +1052,25 @@
   </si>
   <si>
     <t>"example good a"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Largest odd number in string. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>O(n) - Easy</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1498,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2556,6 +2575,18 @@
       <c r="A64">
         <v>62</v>
       </c>
+      <c r="B64" s="4">
+        <v>45716</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FB8DF4-CE6C-4ED5-B064-7921FD293E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA61B212-75A9-45F7-A639-C76E5BFDF3ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="129">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -1071,6 +1062,37 @@
   </si>
   <si>
     <t>O(n) - Easy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove Outermost Parentheses. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>s = "(()())(())"</t>
+  </si>
+  <si>
+    <t>"()()()"</t>
+  </si>
+  <si>
+    <t> Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>strs = ["flower","flow","flight"]</t>
+  </si>
+  <si>
+    <t>"fl"</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1181,6 +1203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1497,18 +1520,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="53.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
@@ -1534,7 +1557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6">
+    <row r="3" spans="1:7" ht="60">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1557,7 +1580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1571,7 +1594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.2">
+    <row r="5" spans="1:7" ht="60">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1591,7 +1614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="57.6">
+    <row r="6" spans="1:7" ht="60">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1611,7 +1634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57.6">
+    <row r="7" spans="1:7" ht="60">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1625,7 +1648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57.6">
+    <row r="8" spans="1:7" ht="60">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1639,7 +1662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57.6">
+    <row r="9" spans="1:7" ht="60">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1653,7 +1676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="57.6">
+    <row r="10" spans="1:7" ht="60">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1667,7 +1690,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.6">
+    <row r="11" spans="1:7" ht="60">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1687,7 +1710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="57.6">
+    <row r="12" spans="1:7" ht="60">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1701,7 +1724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57.6">
+    <row r="13" spans="1:7" ht="60">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1715,7 +1738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="57.6">
+    <row r="14" spans="1:7" ht="60">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1729,7 +1752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="57.6">
+    <row r="15" spans="1:7" ht="60">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1743,7 +1766,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="57.6">
+    <row r="16" spans="1:7" ht="60">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1757,7 +1780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="57.6">
+    <row r="17" spans="1:7" ht="60">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1771,7 +1794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="57.6">
+    <row r="18" spans="1:7" ht="60">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1791,7 +1814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57.6">
+    <row r="19" spans="1:7" ht="60">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1825,7 +1848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8">
+    <row r="21" spans="1:7" ht="30">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1843,7 +1866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="86.4">
+    <row r="22" spans="1:7" ht="90">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1861,7 +1884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="201.6">
+    <row r="23" spans="1:7" ht="210">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1891,7 +1914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="57.6">
+    <row r="25" spans="1:7" ht="60">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1908,7 +1931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57.6">
+    <row r="26" spans="1:7" ht="60">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1925,7 +1948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="57.6">
+    <row r="27" spans="1:7" ht="60">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1953,7 +1976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="100.8">
+    <row r="29" spans="1:7" ht="120">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1970,7 +1993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="57.6">
+    <row r="30" spans="1:7" ht="60">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1990,7 +2013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="57.6">
+    <row r="31" spans="1:7" ht="75">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2021,7 +2044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="43.2">
+    <row r="33" spans="1:7" ht="45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2052,7 +2075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="57.6">
+    <row r="35" spans="1:7" ht="60">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2066,7 +2089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="57.6">
+    <row r="36" spans="1:7" ht="60">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2097,7 +2120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="57.6">
+    <row r="38" spans="1:7" ht="60">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2114,7 +2137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="57.6">
+    <row r="39" spans="1:7" ht="60">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2137,7 +2160,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="57.6">
+    <row r="40" spans="1:7" ht="60">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2160,7 +2183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="28.8">
+    <row r="41" spans="1:7" ht="30">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2177,7 +2200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28.8">
+    <row r="42" spans="1:7" ht="30">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2194,7 +2217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.8">
+    <row r="43" spans="1:7" ht="30">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2217,7 +2240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="57.6">
+    <row r="44" spans="1:7" ht="60">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2234,7 +2257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="43.2">
+    <row r="45" spans="1:7" ht="45">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2254,7 +2277,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="57.6">
+    <row r="46" spans="1:7" ht="75">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2271,7 +2294,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="57.6">
+    <row r="47" spans="1:7" ht="60">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2285,7 +2308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="57.6">
+    <row r="48" spans="1:7" ht="60">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2308,7 +2331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="57.6">
+    <row r="49" spans="1:7" ht="60">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2331,7 +2354,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28.8">
+    <row r="50" spans="1:7" ht="30">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2351,7 +2374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="57.6">
+    <row r="51" spans="1:7" ht="60">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2365,7 +2388,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="57.6">
+    <row r="52" spans="1:7" ht="60">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2379,7 +2402,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="57.6">
+    <row r="53" spans="1:7" ht="60">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2393,7 +2416,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="57.6">
+    <row r="54" spans="1:7" ht="60">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2410,7 +2433,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="57.6">
+    <row r="55" spans="1:7" ht="60">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2427,7 +2450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="57.6">
+    <row r="56" spans="1:7" ht="60">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2450,7 +2473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="57.6">
+    <row r="57" spans="1:7" ht="60">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2469,7 +2492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="57.6">
+    <row r="58" spans="1:7" ht="60">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2486,7 +2509,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="57.6">
+    <row r="59" spans="1:7" ht="60">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2500,7 +2523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="57.6">
+    <row r="60" spans="1:7" ht="60">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2517,7 +2540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8">
+    <row r="61" spans="1:7" ht="30">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2531,7 +2554,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="57.6">
+    <row r="62" spans="1:7" ht="60">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2548,7 +2571,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="57.6">
+    <row r="63" spans="1:7" ht="60">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2571,7 +2594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" ht="30">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2588,22 +2611,58 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:7" ht="30">
       <c r="A65">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" s="4">
+        <v>45733</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="60">
       <c r="A66">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="4">
+        <v>45733</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>66</v>
       </c>

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali.Nehere\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA61B212-75A9-45F7-A639-C76E5BFDF3ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851FC6B4-1331-4671-84B0-A6A2C3D8E1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="132">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -1086,19 +1095,70 @@
     <t>"()()()"</t>
   </si>
   <si>
-    <t> Longest Common Prefix</t>
-  </si>
-  <si>
     <t>strs = ["flower","flow","flight"]</t>
   </si>
   <si>
     <t>"fl"</t>
+  </si>
+  <si>
+    <t>O(n) - Medium</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Longest Common Prefix. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check one string is rotation of other.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Isomorphic string.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1186,7 +1246,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1203,7 +1262,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1518,27 +1578,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="53.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1557,11 +1617,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60">
+    <row r="3" spans="1:7" ht="57.6">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="11">
         <v>41959</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1570,7 +1630,7 @@
       <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1580,11 +1640,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="11">
         <v>45625</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1594,17 +1654,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60">
+    <row r="5" spans="1:7" ht="43.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="11">
         <v>45625</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1614,17 +1674,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60">
+    <row r="6" spans="1:7" ht="57.6">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="11">
         <v>45627</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E6" t="b">
@@ -1634,11 +1694,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60">
+    <row r="7" spans="1:7" ht="57.6">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="11">
         <v>45627</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1648,11 +1708,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60">
+    <row r="8" spans="1:7" ht="57.6">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="11">
         <v>45635</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1662,11 +1722,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="60">
+    <row r="9" spans="1:7" ht="57.6">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="11">
         <v>45635</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1676,11 +1736,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60">
+    <row r="10" spans="1:7" ht="57.6">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="11">
         <v>45635</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1690,11 +1750,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60">
+    <row r="11" spans="1:7" ht="57.6">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="11">
         <v>45635</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1710,11 +1770,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60">
+    <row r="12" spans="1:7" ht="57.6">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="11">
         <v>45635</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1724,11 +1784,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60">
+    <row r="13" spans="1:7" ht="57.6">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="11">
         <v>45635</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1738,11 +1798,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60">
+    <row r="14" spans="1:7" ht="57.6">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="11">
         <v>45635</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1752,11 +1812,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60">
+    <row r="15" spans="1:7" ht="57.6">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="11">
         <v>45635</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1766,11 +1826,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60">
+    <row r="16" spans="1:7" ht="57.6">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="11">
         <v>45636</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1780,11 +1840,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60">
+    <row r="17" spans="1:7" ht="57.6">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="11">
         <v>45636</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1794,38 +1854,38 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="60">
+    <row r="18" spans="1:7" ht="57.6">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="11">
         <v>45637</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60">
+    <row r="19" spans="1:7" ht="57.6">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="11">
         <v>45646</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
       <c r="G19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1834,7 +1894,7 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="11">
         <f>DATE(2024,12,21)</f>
         <v>45647</v>
       </c>
@@ -1848,11 +1908,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30">
+    <row r="21" spans="1:7" ht="28.8">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="11">
         <f t="shared" ref="B21:B23" si="0">DATE(2024,12,21)</f>
         <v>45647</v>
       </c>
@@ -1866,11 +1926,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="90">
+    <row r="22" spans="1:7" ht="86.4">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="11">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
@@ -1884,11 +1944,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="210">
+    <row r="23" spans="1:7" ht="201.6">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="11">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
@@ -1906,7 +1966,7 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="11">
         <f>DATE(2024,12,22)</f>
         <v>45648</v>
       </c>
@@ -1914,11 +1974,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60">
+    <row r="25" spans="1:7" ht="57.6">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="11">
         <v>45649</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1931,11 +1991,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60">
+    <row r="26" spans="1:7" ht="57.6">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="11">
         <v>45649</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1948,11 +2008,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60">
+    <row r="27" spans="1:7" ht="57.6">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="11">
         <v>45649</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1966,21 +2026,21 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="11">
         <v>45649</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="120">
+    <row r="29" spans="1:7" ht="100.8">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="11">
         <v>45650</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1993,11 +2053,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="60">
+    <row r="30" spans="1:7" ht="57.6">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="11">
         <v>45650</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2013,11 +2073,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="75">
+    <row r="31" spans="1:7" ht="57.6">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="11">
         <v>45651</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2034,7 +2094,7 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="11">
         <v>45651</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2044,11 +2104,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45">
+    <row r="33" spans="1:7" ht="43.2">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="11">
         <v>45651</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2065,7 +2125,7 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="11">
         <v>45651</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2075,11 +2135,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="60">
+    <row r="35" spans="1:7" ht="57.6">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="11">
         <v>45652</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2089,11 +2149,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60">
+    <row r="36" spans="1:7" ht="57.6">
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="11">
         <v>45652</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2107,7 +2167,7 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="11">
         <v>45652</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2120,11 +2180,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60">
+    <row r="38" spans="1:7" ht="57.6">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="11">
         <v>45653</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2137,20 +2197,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="60">
+    <row r="39" spans="1:7" ht="57.6">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="11">
         <v>45656</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -2160,20 +2220,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="60">
+    <row r="40" spans="1:7" ht="57.6">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="11">
         <v>45656</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -2183,11 +2243,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30">
+    <row r="41" spans="1:7" ht="28.8">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="11">
         <v>45656</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2200,11 +2260,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="28.8">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="11">
         <v>45656</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2217,11 +2277,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30">
+    <row r="43" spans="1:7" ht="28.8">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="11">
         <v>45656</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2240,11 +2300,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="60">
+    <row r="44" spans="1:7" ht="57.6">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="11">
         <v>45656</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2257,31 +2317,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="45">
+    <row r="45" spans="1:7" ht="43.2">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="11">
         <v>45657</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="9" t="s">
         <v>84</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75">
+    <row r="46" spans="1:7" ht="57.6">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="11">
         <v>45658</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -2294,11 +2354,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60">
+    <row r="47" spans="1:7" ht="57.6">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="11">
         <v>45658</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2308,20 +2368,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="60">
+    <row r="48" spans="1:7" ht="57.6">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="11">
         <v>45658</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="8" t="s">
         <v>91</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -2331,20 +2391,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="60">
+    <row r="49" spans="1:7" ht="57.6">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="11">
         <v>45661</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -2354,11 +2414,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30">
+    <row r="50" spans="1:7" ht="28.8">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="11">
         <v>45662</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2374,11 +2434,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="60">
+    <row r="51" spans="1:7" ht="57.6">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="11">
         <v>45662</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2388,11 +2448,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="60">
+    <row r="52" spans="1:7" ht="57.6">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="11">
         <v>45662</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2402,11 +2462,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="60">
+    <row r="53" spans="1:7" ht="57.6">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="11">
         <v>45662</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2416,11 +2476,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="60">
+    <row r="54" spans="1:7" ht="57.6">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="11">
         <v>45662</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2433,11 +2493,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="60">
+    <row r="55" spans="1:7" ht="57.6">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="11">
         <v>45665</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -2450,20 +2510,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="60">
+    <row r="56" spans="1:7" ht="57.6">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="11">
         <v>45665</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="8" t="s">
         <v>108</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -2473,18 +2533,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="60">
+    <row r="57" spans="1:7" ht="57.6">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="11">
         <v>45666</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="2" t="s">
         <v>105</v>
       </c>
@@ -2492,11 +2552,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="60">
+    <row r="58" spans="1:7" ht="57.6">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="11">
         <v>45674</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2509,11 +2569,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="60">
+    <row r="59" spans="1:7" ht="57.6">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="11">
         <v>45675</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2523,11 +2583,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="60">
+    <row r="60" spans="1:7" ht="57.6">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="11">
         <v>45678</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2540,11 +2600,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30">
+    <row r="61" spans="1:7" ht="28.8">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="11">
         <v>45679</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2554,11 +2614,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="60">
+    <row r="62" spans="1:7" ht="57.6">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="11">
         <v>45694</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2571,11 +2631,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="60">
+    <row r="63" spans="1:7" ht="57.6">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="11">
         <v>45715</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2584,7 +2644,7 @@
       <c r="D63" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="8" t="s">
         <v>120</v>
       </c>
       <c r="F63" s="2" t="s">
@@ -2594,11 +2654,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="11">
         <v>45716</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2611,20 +2671,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="11">
         <v>45733</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" t="s">
         <v>123</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="5" t="s">
         <v>125</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -2634,21 +2694,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="60">
+    <row r="66" spans="1:7" ht="57.6">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="11">
         <v>45733</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="E66" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>122</v>
@@ -2657,14 +2717,128 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" ht="57.6">
       <c r="A67">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="B67" s="11">
+        <v>45734</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="57.6">
       <c r="A68">
         <v>66</v>
+      </c>
+      <c r="B68" s="11">
+        <v>45734</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851FC6B4-1331-4671-84B0-A6A2C3D8E1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA26091F-D8FC-4EE5-8AC2-45776A7E1375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -1151,13 +1151,45 @@
       <t>Leetcode</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find the Distance Value Between Two Arrays. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validate Binary Search Tree. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1237,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1246,7 +1278,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1262,8 +1293,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1581,12 +1618,12 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
@@ -1598,7 +1635,7 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1621,7 +1658,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>41959</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1630,7 +1667,7 @@
       <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1644,7 +1681,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>45625</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1658,13 +1695,13 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>45625</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1678,13 +1715,13 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>45627</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E6" t="b">
@@ -1698,7 +1735,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>45627</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1712,7 +1749,7 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>45635</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1726,7 +1763,7 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>45635</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1740,7 +1777,7 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>45635</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1754,7 +1791,7 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>45635</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1774,7 +1811,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>45635</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1788,7 +1825,7 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>45635</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1802,7 +1839,7 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>45635</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1816,7 +1853,7 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>45635</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1830,7 +1867,7 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>45636</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1844,7 +1881,7 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>45636</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1858,16 +1895,16 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>45637</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1878,14 +1915,14 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>45646</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
       <c r="G19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1894,7 +1931,7 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <f>DATE(2024,12,21)</f>
         <v>45647</v>
       </c>
@@ -1912,7 +1949,7 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <f t="shared" ref="B21:B23" si="0">DATE(2024,12,21)</f>
         <v>45647</v>
       </c>
@@ -1930,7 +1967,7 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
@@ -1948,7 +1985,7 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
@@ -1966,7 +2003,7 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <f>DATE(2024,12,22)</f>
         <v>45648</v>
       </c>
@@ -1978,7 +2015,7 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>45649</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1995,7 +2032,7 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>45649</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2012,7 +2049,7 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>45649</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2026,10 +2063,10 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>45649</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -2040,7 +2077,7 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>45650</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2057,7 +2094,7 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>45650</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2077,7 +2114,7 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>45651</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2094,7 +2131,7 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>45651</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2108,7 +2145,7 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>45651</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2125,7 +2162,7 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>45651</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2139,7 +2176,7 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>45652</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2153,7 +2190,7 @@
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>45652</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2167,7 +2204,7 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>45652</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2184,7 +2221,7 @@
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>45653</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2201,16 +2238,16 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>45656</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -2224,16 +2261,16 @@
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>45656</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -2247,7 +2284,7 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>45656</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2264,7 +2301,7 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>45656</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2281,7 +2318,7 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>45656</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2304,7 +2341,7 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>45656</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2321,16 +2358,16 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>45657</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>84</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -2341,7 +2378,7 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>45658</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -2358,7 +2395,7 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>45658</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2372,16 +2409,16 @@
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="10">
         <v>45658</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -2395,16 +2432,16 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="10">
         <v>45661</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -2418,7 +2455,7 @@
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="10">
         <v>45662</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2438,7 +2475,7 @@
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="10">
         <v>45662</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2452,7 +2489,7 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="10">
         <v>45662</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2466,7 +2503,7 @@
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="10">
         <v>45662</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2480,7 +2517,7 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="10">
         <v>45662</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2497,7 +2534,7 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="10">
         <v>45665</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -2514,16 +2551,16 @@
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="10">
         <v>45665</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -2537,14 +2574,14 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="10">
         <v>45666</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
       <c r="F57" s="2" t="s">
         <v>105</v>
       </c>
@@ -2556,7 +2593,7 @@
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="10">
         <v>45674</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2573,7 +2610,7 @@
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="10">
         <v>45675</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2587,7 +2624,7 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="10">
         <v>45678</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2604,7 +2641,7 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="10">
         <v>45679</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2618,7 +2655,7 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="10">
         <v>45694</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2635,7 +2672,7 @@
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="10">
         <v>45715</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2644,7 +2681,7 @@
       <c r="D63" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F63" s="2" t="s">
@@ -2658,7 +2695,7 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="10">
         <v>45716</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2675,16 +2712,16 @@
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="10">
         <v>45733</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="4" t="s">
         <v>125</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -2698,16 +2735,16 @@
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="10">
         <v>45733</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>127</v>
       </c>
       <c r="F66" s="2" t="s">
@@ -2721,7 +2758,7 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="10">
         <v>45734</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -2738,7 +2775,7 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="10">
         <v>45734</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -2751,14 +2788,38 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" ht="57.6">
       <c r="A69">
         <v>67</v>
+      </c>
+      <c r="B69" s="10">
+        <v>45738</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
         <v>68</v>
+      </c>
+      <c r="B70" s="10">
+        <v>45738</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA26091F-D8FC-4EE5-8AC2-45776A7E1375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654C3E1C-ADDF-48FA-83C7-680F0C150AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="135">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -1170,6 +1170,22 @@
   <si>
     <r>
       <t xml:space="preserve">Validate Binary Search Tree. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sort Characters By Frequency . </t>
     </r>
     <r>
       <rPr>
@@ -1269,7 +1285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1296,9 +1312,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1618,7 +1631,7 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2795,7 +2808,7 @@
       <c r="B69" s="10">
         <v>45738</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F69" s="2" t="s">
@@ -2822,9 +2835,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" ht="57.6">
       <c r="A71">
         <v>69</v>
+      </c>
+      <c r="B71" s="10">
+        <v>45744</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654C3E1C-ADDF-48FA-83C7-680F0C150AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955234A7-B459-49A2-9497-BA4B4BE423FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="139">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -1186,6 +1186,57 @@
   <si>
     <r>
       <t xml:space="preserve">Sort Characters By Frequency . </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">24. Swap Nodes in Pairs in LinkedList. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Merge k Sorted Lists. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>solved using merge sort. Better approach can be piority queue</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rotate List by k. </t>
     </r>
     <r>
       <rPr>
@@ -1630,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2852,19 +2903,49 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" ht="57.6">
       <c r="A72">
         <v>70</v>
+      </c>
+      <c r="B72" s="10">
+        <v>45767</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="B73" s="10">
+        <v>45767</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="57.6">
       <c r="A74">
         <v>72</v>
+      </c>
+      <c r="B74" s="10">
+        <v>45767</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955234A7-B459-49A2-9497-BA4B4BE423FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D6264F-166F-4629-B273-38B57029B7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="140">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -1237,6 +1237,22 @@
   <si>
     <r>
       <t xml:space="preserve">Rotate List by k. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delete the node in linkedlist.You are given the node to be deleted node. You will not be given access to the first node of head. </t>
     </r>
     <r>
       <rPr>
@@ -1681,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2948,9 +2964,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" ht="57.6">
       <c r="A75">
         <v>73</v>
+      </c>
+      <c r="B75" s="10">
+        <v>45768</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D6264F-166F-4629-B273-38B57029B7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADC0E60-1391-40BB-8639-7E44DDA2E1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="146">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -1266,6 +1266,74 @@
       <t>Leetcode</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove Duplicates from sorted list. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Merge in between linked list. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>Input: list1 = [10,1,13,6,9,5], a = 3, b = 4, list2 = [1000000,1000001,1000002]</t>
+  </si>
+  <si>
+    <r>
+      <t>Output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [10,1,13,1000000,1000001,1000002,5]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Return node when cycle begins. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>solved and took help for  submition</t>
+  </si>
 </sst>
 </file>
 
@@ -1274,7 +1342,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1309,6 +1377,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF262626"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Menlo"/>
       <family val="2"/>
@@ -1352,7 +1433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1380,6 +1461,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1697,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2978,19 +3062,52 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" ht="57.6">
       <c r="A76">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="B76" s="10">
+        <v>45769</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="57.6">
       <c r="A77">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="B77" s="10">
+        <v>45769</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="72">
       <c r="A78">
         <v>76</v>
+      </c>
+      <c r="B78" s="10">
+        <v>45769</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADC0E60-1391-40BB-8639-7E44DDA2E1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF88E2D2-1124-4938-BB53-2D6726C4F859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="148">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -1333,6 +1333,26 @@
   </si>
   <si>
     <t>solved and took help for  submition</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check linkedlist pallindrom or not. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
+  </si>
+  <si>
+    <t>coverted list into string then check.
+But find middle. Reverse second half and check both halves.</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1802,7 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3110,9 +3130,21 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" ht="57.6">
       <c r="A79">
         <v>77</v>
+      </c>
+      <c r="B79" s="10">
+        <v>45770</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:7">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF88E2D2-1124-4938-BB53-2D6726C4F859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DC3069-A776-4B26-A686-65E100891B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="149">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -1353,6 +1353,22 @@
   <si>
     <t>coverted list into string then check.
 But find middle. Reverse second half and check both halves.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delete the middle node of the linkedlist. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leetcode</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1801,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40A74A-EB3F-4E86-8D6F-4F883122068C}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1812,7 +1828,7 @@
     <col min="4" max="4" width="31.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
     <col min="6" max="6" width="53.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="19" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" customHeight="1">
@@ -3116,7 +3132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="72">
+    <row r="78" spans="1:7" ht="43.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3147,9 +3163,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" ht="57.6">
       <c r="A80">
         <v>78</v>
+      </c>
+      <c r="B80" s="10">
+        <v>45771</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:1">

--- a/CodingQuestionsHint.xlsx
+++ b/CodingQuestionsHint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonali Nehere\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DC3069-A776-4B26-A686-65E100891B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815B0181-1442-4F2C-B01C-CD308D6DA8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2CF21A2-6574-4A99-AEC1-B2D72A0DDE95}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="150">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -1369,6 +1369,9 @@
       </rPr>
       <t>Leetcode</t>
     </r>
+  </si>
+  <si>
+    <t>Find intersection of two lists</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1821,7 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1854,7 +1857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="57.6">
+    <row r="6" spans="1:7" ht="27.6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57.6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57.6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57.6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="57.6">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1987,7 +1990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.6">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="57.6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57.6">
+    <row r="13" spans="1:7" ht="28.8">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="57.6">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="57.6">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="57.6">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="57.6">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2091,7 +2094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="57.6">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57.6">
+    <row r="19" spans="1:7" ht="28.8">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="57.6">
+    <row r="25" spans="1:7" ht="28.8">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57.6">
+    <row r="26" spans="1:7" ht="28.8">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="57.6">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2290,7 +2293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="57.6">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="57.6">
+    <row r="35" spans="1:7" ht="28.8">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="57.6">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="57.6">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="57.6">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2457,7 +2460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="57.6">
+    <row r="40" spans="1:7" ht="28.8">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="43.2">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="57.6">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="57.6">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2671,7 +2674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="57.6">
+    <row r="51" spans="1:7" ht="28.8">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="57.6">
+    <row r="52" spans="1:7" ht="28.8">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="57.6">
+    <row r="53" spans="1:7" ht="28.8">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="57.6">
+    <row r="54" spans="1:7" ht="28.8">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="57.6">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="57.6">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="57.6">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="57.6">
+    <row r="58" spans="1:7" ht="28.8">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2806,7 +2809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="57.6">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="57.6">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2868,7 +2871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="57.6">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2931,7 +2934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="57.6">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="57.6">
+    <row r="67" spans="1:7" ht="28.8">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2971,7 +2974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="57.6">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2988,7 +2991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="57.6">
+    <row r="69" spans="1:7" ht="28.8">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3022,7 +3025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="57.6">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="57.6">
+    <row r="72" spans="1:7" ht="28.8">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="57.6">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3084,7 +3087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="57.6">
+    <row r="75" spans="1:7" ht="43.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="57.6">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="57.6">
+    <row r="77" spans="1:7" ht="43.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3132,7 +3135,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="43.2">
+    <row r="78" spans="1:7" ht="28.8">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="57.6">
+    <row r="79" spans="1:7" ht="43.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3163,7 +3166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="57.6">
+    <row r="80" spans="1:7" ht="28.8">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3177,32 +3180,41 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81" s="10">
+        <v>45772</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>84</v>
       </c>
